--- a/ghc_lazy_wl/3_bishe/5.xlsx
+++ b/ghc_lazy_wl/3_bishe/5.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10914"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/leonardo/Desktop/画图脚本/0525draw/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\draw_tools\ghc_lazy_wl\3_bishe\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4EEA5E8C-D7D1-BE48-B71F-5DCD56E1CEA9}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B5EFE15-6C1E-470A-BC1D-533F20171FCE}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16580" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16580" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Write-30" sheetId="1" r:id="rId1"/>
@@ -24,17 +24,22 @@
     <sheet name="draw_config" sheetId="3" r:id="rId9"/>
     <sheet name="subfig_title" sheetId="12" r:id="rId10"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="179021"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1265" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1265" uniqueCount="97">
   <si>
     <t xml:space="preserve">Triggered wear-leveling </t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -397,6 +402,11 @@
     <t>ASO (Bytes)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>Average Response
+Time (ms)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
@@ -607,7 +617,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -685,6 +695,9 @@
     </xf>
     <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1003,23 +1016,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I179"/>
   <sheetViews>
-    <sheetView topLeftCell="A71" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="M168" sqref="M168"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="B28" sqref="B28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.5"/>
   <cols>
-    <col min="1" max="1" width="25.6640625" customWidth="1"/>
-    <col min="2" max="2" width="13.1640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.1640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="25.69140625" customWidth="1"/>
+    <col min="2" max="2" width="25.4609375" customWidth="1"/>
+    <col min="5" max="5" width="12.15234375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:9" ht="46.5">
       <c r="A1" t="s">
         <v>21</v>
       </c>
-      <c r="B1" t="s">
-        <v>93</v>
+      <c r="B1" s="26" t="s">
+        <v>96</v>
       </c>
       <c r="C1" t="s">
         <v>83</v>
@@ -1327,12 +1340,12 @@
         <v>68.187652</v>
       </c>
     </row>
-    <row r="16" spans="1:9">
+    <row r="16" spans="1:9" ht="46.5">
       <c r="A16" t="s">
         <v>40</v>
       </c>
-      <c r="B16" t="s">
-        <v>93</v>
+      <c r="B16" s="26" t="s">
+        <v>96</v>
       </c>
       <c r="C16" t="s">
         <v>83</v>
@@ -4996,10 +5009,10 @@
       <selection activeCell="E55" sqref="E55"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16"/>
+  <sheetFormatPr defaultColWidth="8.84375" defaultRowHeight="15.5"/>
   <cols>
-    <col min="1" max="1" width="28.1640625" customWidth="1"/>
-    <col min="2" max="2" width="15.5" customWidth="1"/>
+    <col min="1" max="1" width="28.15234375" customWidth="1"/>
+    <col min="2" max="2" width="15.4609375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
@@ -5598,7 +5611,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16"/>
+  <sheetFormatPr defaultColWidth="8.84375" defaultRowHeight="15.5"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5613,7 +5626,7 @@
       <selection activeCell="B166" sqref="B166"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.5"/>
   <cols>
     <col min="1" max="1" width="24" customWidth="1"/>
   </cols>
@@ -9958,10 +9971,10 @@
       <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="16"/>
+  <sheetFormatPr defaultColWidth="11.15234375" defaultRowHeight="15.5"/>
   <cols>
-    <col min="1" max="1" width="24.6640625" customWidth="1"/>
-    <col min="2" max="2" width="18.1640625" customWidth="1"/>
+    <col min="1" max="1" width="24.69140625" customWidth="1"/>
+    <col min="2" max="2" width="18.15234375" customWidth="1"/>
     <col min="3" max="3" width="18" customWidth="1"/>
   </cols>
   <sheetData>
@@ -13229,9 +13242,9 @@
       <selection activeCell="F170" sqref="F170"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="16"/>
+  <sheetFormatPr defaultColWidth="11.15234375" defaultRowHeight="15.5"/>
   <cols>
-    <col min="1" max="1" width="24.1640625" customWidth="1"/>
+    <col min="1" max="1" width="24.15234375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9">
@@ -16475,6 +16488,7 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -16486,9 +16500,9 @@
       <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16"/>
+  <sheetFormatPr defaultColWidth="10.84375" defaultRowHeight="15.5"/>
   <cols>
-    <col min="1" max="1" width="19.5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="19.4609375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -16819,9 +16833,9 @@
       <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16"/>
+  <sheetFormatPr defaultColWidth="10.84375" defaultRowHeight="15.5"/>
   <cols>
-    <col min="1" max="1" width="19.5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="19.4609375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -17135,14 +17149,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9B3BBBFA-D470-F346-878F-6B0470721B0E}">
   <dimension ref="A1:H7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16"/>
+  <sheetFormatPr defaultColWidth="10.84375" defaultRowHeight="15.5"/>
   <cols>
-    <col min="1" max="2" width="23.1640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.5" bestFit="1" customWidth="1"/>
+    <col min="1" max="2" width="23.15234375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.4609375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
@@ -17296,12 +17310,12 @@
       <selection activeCell="H31" sqref="H31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16"/>
+  <sheetFormatPr defaultColWidth="8.84375" defaultRowHeight="15.5"/>
   <cols>
-    <col min="1" max="1" width="17.1640625" customWidth="1"/>
+    <col min="1" max="1" width="17.15234375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="17" thickBot="1">
+    <row r="1" spans="1:4" ht="16" thickBot="1">
       <c r="A1" s="20" t="s">
         <v>15</v>
       </c>
@@ -17427,7 +17441,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="17" thickBot="1">
+    <row r="10" spans="1:4" ht="16" thickBot="1">
       <c r="A10" s="16" t="s">
         <v>31</v>
       </c>
@@ -17567,7 +17581,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="20" spans="1:4" ht="17" thickBot="1">
+    <row r="20" spans="1:4" ht="16" thickBot="1">
       <c r="A20" s="16" t="s">
         <v>49</v>
       </c>
@@ -17693,7 +17707,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="29" spans="1:4" ht="17" thickBot="1">
+    <row r="29" spans="1:4" ht="16" thickBot="1">
       <c r="A29" s="16" t="s">
         <v>31</v>
       </c>
@@ -17735,7 +17749,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="32" spans="1:4" ht="17" thickBot="1">
+    <row r="32" spans="1:4" ht="16" thickBot="1">
       <c r="A32" s="16" t="s">
         <v>60</v>
       </c>
